--- a/ValueSet-fp-loinc-snomed-vs.xlsx
+++ b/ValueSet-fp-loinc-snomed-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T12:58:34-04:00</t>
+    <t>2022-04-26T11:43:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-fp-loinc-snomed-vs.xlsx
+++ b/ValueSet-fp-loinc-snomed-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T11:43:49-04:00</t>
+    <t>2022-05-13T16:07:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>This material contains content from LOINC (http://loinc.org). LOINC is copyright © 1995-2020, Regenstrief Institute, Inc. and the Logical Observation Identifiers Names and Codes (LOINC) Committee and is available at no cost under the license at http://loinc.org/license. LOINC® is a registered United States trademark of Regenstrief Institute, Inc. This value set includes content from SNOMED CT, which is copyright © 2002+ International Health Terminology Standards Development Organisation (IHTSDO), and distributed by agreement between IHTSDO and HL7. Implementer use of SNOMED CT is not covered by this agreement</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -368,14 +371,16 @@
       <c r="A15" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -397,28 +402,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -440,28 +445,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
